--- a/vegakub/IP Plan/Book1.xlsx
+++ b/vegakub/IP Plan/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/l.singh/Desktop/vagrant/vegakub/IP Plan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grimard/Documents/GitHub/vagrant/vegakub/IP Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239987DE-CDEC-4044-B333-C6503940E71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E694830-5279-E644-A105-391153B313EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54440" yWindow="11000" windowWidth="28040" windowHeight="17440" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
+    <workbookView xWindow="-38360" yWindow="5320" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,9 +38,6 @@
     <t>Virtual Machine</t>
   </si>
   <si>
-    <t>Physical Nod</t>
-  </si>
-  <si>
     <t>Provisioning interface</t>
   </si>
   <si>
@@ -106,6 +102,9 @@
   </si>
   <si>
     <t>172.20.1.216</t>
+  </si>
+  <si>
+    <t>Physical Node</t>
   </si>
 </sst>
 </file>
@@ -465,14 +464,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03E2066-AA95-4943-94DF-BA620CD3096C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -482,112 +481,112 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/vegakub/IP Plan/Book1.xlsx
+++ b/vegakub/IP Plan/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grimard/Documents/GitHub/vagrant/vegakub/IP Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E694830-5279-E644-A105-391153B313EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E8148-9D8F-A647-929A-75E6331EB224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38360" yWindow="5320" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
+    <workbookView xWindow="-44340" yWindow="4100" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Virtual Machine</t>
   </si>
@@ -105,13 +105,139 @@
   </si>
   <si>
     <t>Physical Node</t>
+  </si>
+  <si>
+    <t>10.1.10.200</t>
+  </si>
+  <si>
+    <t>UDF ULN</t>
+  </si>
+  <si>
+    <t>UDF Provisioning</t>
+  </si>
+  <si>
+    <t>10.1.20.200</t>
+  </si>
+  <si>
+    <t>10.1.20.201</t>
+  </si>
+  <si>
+    <t>10.1.20.202</t>
+  </si>
+  <si>
+    <t>10.1.20.203</t>
+  </si>
+  <si>
+    <t>10.1.10.201</t>
+  </si>
+  <si>
+    <t>10.1.10.202</t>
+  </si>
+  <si>
+    <t>10.1.10.203</t>
+  </si>
+  <si>
+    <t>10.1.10.212</t>
+  </si>
+  <si>
+    <t>10.1.20.212</t>
+  </si>
+  <si>
+    <t>10.1.10.213</t>
+  </si>
+  <si>
+    <t>10.1.10.214</t>
+  </si>
+  <si>
+    <t>10.1.10.215</t>
+  </si>
+  <si>
+    <t>10.1.10.216</t>
+  </si>
+  <si>
+    <t>10.1.20.213</t>
+  </si>
+  <si>
+    <t>10.1.20.214</t>
+  </si>
+  <si>
+    <t>10.1.20.215</t>
+  </si>
+  <si>
+    <t>10.1.20.216</t>
+  </si>
+  <si>
+    <t>DNS Name</t>
+  </si>
+  <si>
+    <t>Other IP</t>
+  </si>
+  <si>
+    <t>10.1.10.150</t>
+  </si>
+  <si>
+    <t>10.1.20.150</t>
+  </si>
+  <si>
+    <t>172.20.1.204</t>
+  </si>
+  <si>
+    <t>172.20.1.205</t>
+  </si>
+  <si>
+    <t>172.20.1.206</t>
+  </si>
+  <si>
+    <t>172.20.1.207</t>
+  </si>
+  <si>
+    <t>172.20.1.208</t>
+  </si>
+  <si>
+    <t>bootstrap.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>Secondary IP</t>
+  </si>
+  <si>
+    <t>10.1.10.100</t>
+  </si>
+  <si>
+    <t>Bastion (Web)</t>
+  </si>
+  <si>
+    <t>aspen-node-2.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>master-1.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>master-2.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>master-3.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-3.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-4.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-5.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-6.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-1.openshift.aspenlab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,13 +251,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,8 +304,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,21 +626,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03E2066-AA95-4943-94DF-BA620CD3096C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,104 +658,237 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/vegakub/IP Plan/Book1.xlsx
+++ b/vegakub/IP Plan/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grimard/Documents/GitHub/vagrant/vegakub/IP Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525E8148-9D8F-A647-929A-75E6331EB224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1F7F3-1447-F149-9EC7-1B084A73214D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44340" yWindow="4100" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
+    <workbookView minimized="1" xWindow="-60160" yWindow="460" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vegakub/IP Plan/Book1.xlsx
+++ b/vegakub/IP Plan/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grimard/Documents/GitHub/vagrant/vegakub/IP Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1F7F3-1447-F149-9EC7-1B084A73214D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C6FFC-0A98-C94B-809B-A955A0EC8FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-60160" yWindow="460" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
+    <workbookView minimized="1" xWindow="-64480" yWindow="2500" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
   <si>
     <t>Virtual Machine</t>
   </si>
@@ -44,9 +44,6 @@
     <t>IP address</t>
   </si>
   <si>
-    <t>BootStrap</t>
-  </si>
-  <si>
     <t>Master-2</t>
   </si>
   <si>
@@ -231,6 +228,42 @@
   </si>
   <si>
     <t>aspen-node-1.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>MGMT IP</t>
+  </si>
+  <si>
+    <t>10.1.1.4</t>
+  </si>
+  <si>
+    <t>10.1.1.5</t>
+  </si>
+  <si>
+    <t>10.1.1.6</t>
+  </si>
+  <si>
+    <t>10.1.1.7</t>
+  </si>
+  <si>
+    <t>10.1.1.8</t>
+  </si>
+  <si>
+    <t>10.1.1.9</t>
+  </si>
+  <si>
+    <t>10.1.1.10</t>
+  </si>
+  <si>
+    <t>10.1.1.11</t>
+  </si>
+  <si>
+    <t>10.1.1.12</t>
+  </si>
+  <si>
+    <t>10.1.1.13</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -266,7 +299,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +324,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -304,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -312,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +669,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -659,236 +699,269 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>47</v>
+      <c r="I2" t="s">
+        <v>66</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>70</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>35</v>
+      <c r="I7" t="s">
+        <v>71</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/vegakub/IP Plan/Book1.xlsx
+++ b/vegakub/IP Plan/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grimard/Documents/GitHub/vagrant/vegakub/IP Plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9C6FFC-0A98-C94B-809B-A955A0EC8FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9676A36-DDCA-5A4D-88AE-22168E66A332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-64480" yWindow="2500" windowWidth="60160" windowHeight="28340" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
+    <workbookView xWindow="-52880" yWindow="1460" windowWidth="46240" windowHeight="26440" xr2:uid="{E9FCD930-FFAC-164A-8BF6-52448EE179D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="157">
   <si>
     <t>Virtual Machine</t>
   </si>
@@ -104,16 +104,376 @@
     <t>Physical Node</t>
   </si>
   <si>
-    <t>10.1.10.200</t>
-  </si>
-  <si>
-    <t>UDF ULN</t>
-  </si>
-  <si>
     <t>UDF Provisioning</t>
   </si>
   <si>
-    <t>10.1.20.200</t>
+    <t>DNS Name</t>
+  </si>
+  <si>
+    <t>Other IP</t>
+  </si>
+  <si>
+    <t>172.20.1.204</t>
+  </si>
+  <si>
+    <t>172.20.1.205</t>
+  </si>
+  <si>
+    <t>172.20.1.206</t>
+  </si>
+  <si>
+    <t>172.20.1.207</t>
+  </si>
+  <si>
+    <t>172.20.1.208</t>
+  </si>
+  <si>
+    <t>bootstrap.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>Bastion (Web)</t>
+  </si>
+  <si>
+    <t>aspen-node-2.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>master-1.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>master-2.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>master-3.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-3.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-4.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-5.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-6.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>aspen-node-1.openshift.aspenlab</t>
+  </si>
+  <si>
+    <t>10.1.1.4</t>
+  </si>
+  <si>
+    <t>10.1.1.5</t>
+  </si>
+  <si>
+    <t>10.1.1.6</t>
+  </si>
+  <si>
+    <t>10.1.1.7</t>
+  </si>
+  <si>
+    <t>10.1.1.8</t>
+  </si>
+  <si>
+    <t>10.1.1.9</t>
+  </si>
+  <si>
+    <t>10.1.1.10</t>
+  </si>
+  <si>
+    <t>10.1.1.11</t>
+  </si>
+  <si>
+    <t>10.1.1.12</t>
+  </si>
+  <si>
+    <t>10.1.1.13</t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>172.30.0.0/16</t>
+  </si>
+  <si>
+    <t>Provisioning Network</t>
+  </si>
+  <si>
+    <t>172.20.1.0/16</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>UDF</t>
+  </si>
+  <si>
+    <t>10.1.1.0/24</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>ens1f0</t>
+  </si>
+  <si>
+    <t>172.20.1.150/24 to the provisioning bridge</t>
+  </si>
+  <si>
+    <t>172.20.1.100/24 added to the bridge to be the listener VIP</t>
+  </si>
+  <si>
+    <t>10.200.0.0/16</t>
+  </si>
+  <si>
+    <t>10.250.0.0/16</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>10.1.30.0/24</t>
+  </si>
+  <si>
+    <t>Underlay Ingress</t>
+  </si>
+  <si>
+    <t>DRAC</t>
+  </si>
+  <si>
+    <t>10.144.188.0/24</t>
+  </si>
+  <si>
+    <t>172.20.1.100</t>
+  </si>
+  <si>
+    <t>172.20.1.150</t>
+  </si>
+  <si>
+    <t>10.1.1.100</t>
+  </si>
+  <si>
+    <t>Bastion DRAC 10.144.188.150</t>
+  </si>
+  <si>
+    <t>vlan1011</t>
+  </si>
+  <si>
+    <t>10.250.12.1/24</t>
+  </si>
+  <si>
+    <t>ens1f1</t>
+  </si>
+  <si>
+    <t>10.250.10.1/24</t>
+  </si>
+  <si>
+    <t>external-sriov address 10.250.12.11/24</t>
+  </si>
+  <si>
+    <t>BIGIP IP's</t>
+  </si>
+  <si>
+    <t>HA address 172.16.10.1/24</t>
+  </si>
+  <si>
+    <t>pod-base-network address 172.20.1.97/24</t>
+  </si>
+  <si>
+    <t>pod-base-network-floating address 172.20.1.99/24</t>
+  </si>
+  <si>
+    <t>underlay-egress-from-namespace-testing address 10.250.252.11/24</t>
+  </si>
+  <si>
+    <t>underlay-egress-from-namespace-testing-floating address 10.250.252.10/24</t>
+  </si>
+  <si>
+    <t>underlay-ingress-to-all-namespaces address 10.250.250.11/24</t>
+  </si>
+  <si>
+    <t>underlay-ingress-to-all-namespaces-floating address 10.250.250.10/24</t>
+  </si>
+  <si>
+    <t>10.1.30.200</t>
+  </si>
+  <si>
+    <t>10.1.30.201</t>
+  </si>
+  <si>
+    <t>10.1.30.202</t>
+  </si>
+  <si>
+    <t>10.1.30.203</t>
+  </si>
+  <si>
+    <t>10.1.30.204</t>
+  </si>
+  <si>
+    <t>10.1.30.205</t>
+  </si>
+  <si>
+    <t>10.1.30.206</t>
+  </si>
+  <si>
+    <t>10.1.30.207</t>
+  </si>
+  <si>
+    <t>10.1.30.208</t>
+  </si>
+  <si>
+    <t>UDF Name</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Master1</t>
+  </si>
+  <si>
+    <t>Master2</t>
+  </si>
+  <si>
+    <t>Master3</t>
+  </si>
+  <si>
+    <t>Worker1</t>
+  </si>
+  <si>
+    <t>Worker2</t>
+  </si>
+  <si>
+    <t>Worker3</t>
+  </si>
+  <si>
+    <t>Worker4</t>
+  </si>
+  <si>
+    <t>Worker5</t>
+  </si>
+  <si>
+    <t>HA network</t>
+  </si>
+  <si>
+    <t>172.16.10.0/24</t>
+  </si>
+  <si>
+    <t>10.1.10</t>
+  </si>
+  <si>
+    <t>HA Network</t>
+  </si>
+  <si>
+    <t>10.1.10.204</t>
+  </si>
+  <si>
+    <t>10.1.10.205</t>
+  </si>
+  <si>
+    <t>10.1.10.206</t>
+  </si>
+  <si>
+    <t>10.1.10.207</t>
+  </si>
+  <si>
+    <t>10.1.10.208</t>
+  </si>
+  <si>
+    <t>F5 MGMT</t>
+  </si>
+  <si>
+    <t>F5 HA</t>
+  </si>
+  <si>
+    <t>F5 EXT</t>
+  </si>
+  <si>
+    <t>10.1.1.204</t>
+  </si>
+  <si>
+    <t>10.1.1.205</t>
+  </si>
+  <si>
+    <t>10.1.1.206</t>
+  </si>
+  <si>
+    <t>10.1.1.207</t>
+  </si>
+  <si>
+    <t>10.1.1.208</t>
+  </si>
+  <si>
+    <t>10.1.1.2XX</t>
+  </si>
+  <si>
+    <t>NAME                              HOST                              HOST IP     SUBNET           EGRESS CIDRS   EGRESS IPS</t>
+  </si>
+  <si>
+    <t>aspen-node-2.openshift.aspenlab   aspen-node-2.openshift.aspenlab   10.1.1.9    10.200.8.0/23                   </t>
+  </si>
+  <si>
+    <t>aspen-node-3.openshift.aspenlab   aspen-node-3.openshift.aspenlab   10.1.1.10   10.200.6.0/23                   </t>
+  </si>
+  <si>
+    <t>aspen-node-4.openshift.aspenlab   aspen-node-4.openshift.aspenlab   10.1.1.11   10.200.10.0/23                  </t>
+  </si>
+  <si>
+    <t>aspen-node-5.openshift.aspenlab   aspen-node-5.openshift.aspenlab   10.1.1.12   10.200.14.0/23                  </t>
+  </si>
+  <si>
+    <t>aspen-node-6.openshift.aspenlab   aspen-node-6.openshift.aspenlab   10.1.1.13   10.200.12.0/23                  </t>
+  </si>
+  <si>
+    <t>master-1.openshift.aspenlab       master-1.openshift.aspenlab       10.1.1.6    10.200.0.0/23                   </t>
+  </si>
+  <si>
+    <t>master-2.openshift.aspenlab       master-2.openshift.aspenlab       10.1.1.7    10.200.2.0/23                   </t>
+  </si>
+  <si>
+    <t>master-3.openshift.aspenlab       master-3.openshift.aspenlab       10.1.1.8    10.200.4.0/23    </t>
+  </si>
+  <si>
+    <t>10.1.40.100</t>
+  </si>
+  <si>
+    <t>10.1.40.204</t>
+  </si>
+  <si>
+    <t>10.1.40.205</t>
+  </si>
+  <si>
+    <t>10.1.40.206</t>
+  </si>
+  <si>
+    <t>10.1.40.207</t>
+  </si>
+  <si>
+    <t>10.1.40.208</t>
+  </si>
+  <si>
+    <t>10.1.40.201</t>
+  </si>
+  <si>
+    <t>10.1.40.202</t>
+  </si>
+  <si>
+    <t>10.1.40.203</t>
+  </si>
+  <si>
+    <t>10.1.10.100</t>
+  </si>
+  <si>
+    <t>10.1.10.201</t>
+  </si>
+  <si>
+    <t>10.1.10.202</t>
+  </si>
+  <si>
+    <t>10.1.10.203</t>
+  </si>
+  <si>
+    <t>Service Net</t>
   </si>
   <si>
     <t>10.1.20.201</t>
@@ -125,152 +485,32 @@
     <t>10.1.20.203</t>
   </si>
   <si>
-    <t>10.1.10.201</t>
-  </si>
-  <si>
-    <t>10.1.10.202</t>
-  </si>
-  <si>
-    <t>10.1.10.203</t>
-  </si>
-  <si>
-    <t>10.1.10.212</t>
-  </si>
-  <si>
-    <t>10.1.20.212</t>
-  </si>
-  <si>
-    <t>10.1.10.213</t>
-  </si>
-  <si>
-    <t>10.1.10.214</t>
-  </si>
-  <si>
-    <t>10.1.10.215</t>
-  </si>
-  <si>
-    <t>10.1.10.216</t>
-  </si>
-  <si>
-    <t>10.1.20.213</t>
-  </si>
-  <si>
-    <t>10.1.20.214</t>
-  </si>
-  <si>
-    <t>10.1.20.215</t>
-  </si>
-  <si>
-    <t>10.1.20.216</t>
-  </si>
-  <si>
-    <t>DNS Name</t>
-  </si>
-  <si>
-    <t>Other IP</t>
-  </si>
-  <si>
-    <t>10.1.10.150</t>
-  </si>
-  <si>
-    <t>10.1.20.150</t>
-  </si>
-  <si>
-    <t>172.20.1.204</t>
-  </si>
-  <si>
-    <t>172.20.1.205</t>
-  </si>
-  <si>
-    <t>172.20.1.206</t>
-  </si>
-  <si>
-    <t>172.20.1.207</t>
-  </si>
-  <si>
-    <t>172.20.1.208</t>
-  </si>
-  <si>
-    <t>bootstrap.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>Secondary IP</t>
-  </si>
-  <si>
-    <t>10.1.10.100</t>
-  </si>
-  <si>
-    <t>Bastion (Web)</t>
-  </si>
-  <si>
-    <t>aspen-node-2.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>master-1.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>master-2.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>master-3.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>aspen-node-3.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>aspen-node-4.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>aspen-node-5.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>aspen-node-6.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>aspen-node-1.openshift.aspenlab</t>
-  </si>
-  <si>
-    <t>MGMT IP</t>
-  </si>
-  <si>
-    <t>10.1.1.4</t>
-  </si>
-  <si>
-    <t>10.1.1.5</t>
-  </si>
-  <si>
-    <t>10.1.1.6</t>
-  </si>
-  <si>
-    <t>10.1.1.7</t>
-  </si>
-  <si>
-    <t>10.1.1.8</t>
-  </si>
-  <si>
-    <t>10.1.1.9</t>
-  </si>
-  <si>
-    <t>10.1.1.10</t>
-  </si>
-  <si>
-    <t>10.1.1.11</t>
-  </si>
-  <si>
-    <t>10.1.1.12</t>
-  </si>
-  <si>
-    <t>10.1.1.13</t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
+    <t>10.1.20.204</t>
+  </si>
+  <si>
+    <t>10.1.20.205</t>
+  </si>
+  <si>
+    <t>10.1.20.206</t>
+  </si>
+  <si>
+    <t>10.1.20.207</t>
+  </si>
+  <si>
+    <t>10.1.20.208</t>
+  </si>
+  <si>
+    <t>Service Network-ServiceIP's</t>
+  </si>
+  <si>
+    <t>Cluster Network OVN (pod net)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,8 +538,14 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +570,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -347,11 +587,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,26 +906,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03E2066-AA95-4943-94DF-BA620CD3096C}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,273 +938,598 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
       <c r="J1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="J7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>63</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
